--- a/Mifos Automation Excels/Client/3028-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/3028-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="55">
   <si>
     <t>#</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>repaymenttransactiondate</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -297,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -343,6 +346,16 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,10 +818,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +829,7 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -824,7 +837,7 @@
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
@@ -891,7 +904,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="10">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8">
@@ -906,6 +919,7 @@
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -923,19 +937,19 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="8">
-        <v>785.8</v>
+        <v>836.76</v>
       </c>
       <c r="G3" s="11">
-        <v>9214.2000000000007</v>
+        <v>4163.24</v>
       </c>
       <c r="H3" s="8">
-        <v>101.92</v>
+        <v>50.96</v>
       </c>
       <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
         <v>100</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
       </c>
       <c r="K3" s="8">
         <v>987.72</v>
@@ -949,85 +963,75 @@
       <c r="N3" s="8">
         <v>0</v>
       </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
       <c r="P3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>28</v>
-      </c>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="9">
         <v>42064</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="8">
-        <v>802.9</v>
-      </c>
-      <c r="G4" s="11">
-        <v>8411.2999999999993</v>
-      </c>
-      <c r="H4" s="8">
-        <v>84.82</v>
-      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="8">
-        <v>100</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" s="8"/>
       <c r="K4" s="8">
-        <v>987.72</v>
+        <v>0</v>
       </c>
       <c r="L4" s="8">
         <v>0</v>
       </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>987.72</v>
-      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="9">
-        <v>42095</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+        <v>42064</v>
+      </c>
+      <c r="D5" s="9">
+        <v>42064</v>
+      </c>
+      <c r="E5" s="12"/>
       <c r="F5" s="8">
-        <v>793.81</v>
+        <v>850.32</v>
       </c>
       <c r="G5" s="11">
-        <v>7617.49</v>
+        <v>8212.92</v>
       </c>
       <c r="H5" s="8">
-        <v>93.91</v>
+        <v>37.4</v>
       </c>
       <c r="I5" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8">
         <v>0</v>
       </c>
       <c r="K5" s="8">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
       <c r="L5" s="8">
-        <v>0</v>
+        <v>887.72</v>
       </c>
       <c r="M5" s="8">
         <v>0</v>
@@ -1035,39 +1039,42 @@
       <c r="N5" s="8">
         <v>0</v>
       </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
       <c r="P5" s="8">
-        <v>987.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="9">
-        <v>42125</v>
+        <v>42095</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8">
-        <v>812.59</v>
+        <v>804.02</v>
       </c>
       <c r="G6" s="11">
-        <v>6804.9</v>
+        <v>7408.9</v>
       </c>
       <c r="H6" s="8">
-        <v>75.13</v>
+        <v>83.7</v>
       </c>
       <c r="I6" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J6" s="8">
         <v>0</v>
       </c>
       <c r="K6" s="8">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
       <c r="L6" s="8">
         <v>0</v>
@@ -1078,39 +1085,42 @@
       <c r="N6" s="8">
         <v>0</v>
       </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
       <c r="P6" s="8">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="9">
-        <v>42156</v>
+        <v>42125</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8">
-        <v>818.37</v>
+        <v>814.65</v>
       </c>
       <c r="G7" s="11">
-        <v>5986.53</v>
+        <v>6594.25</v>
       </c>
       <c r="H7" s="8">
-        <v>69.349999999999994</v>
+        <v>73.069999999999993</v>
       </c>
       <c r="I7" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J7" s="8">
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
       <c r="L7" s="8">
         <v>0</v>
@@ -1121,39 +1131,42 @@
       <c r="N7" s="8">
         <v>0</v>
       </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
       <c r="P7" s="8">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9">
-        <v>42186</v>
+        <v>42156</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8">
-        <v>828.67</v>
+        <v>820.51</v>
       </c>
       <c r="G8" s="11">
-        <v>5157.8599999999997</v>
+        <v>5773.74</v>
       </c>
       <c r="H8" s="8">
-        <v>59.05</v>
+        <v>67.209999999999994</v>
       </c>
       <c r="I8" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
       </c>
       <c r="K8" s="8">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
       <c r="L8" s="8">
         <v>0</v>
@@ -1164,39 +1177,42 @@
       <c r="N8" s="8">
         <v>0</v>
       </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
       <c r="P8" s="8">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="9">
-        <v>42217</v>
+        <v>42186</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8">
-        <v>835.15</v>
+        <v>830.77</v>
       </c>
       <c r="G9" s="11">
-        <v>4322.71</v>
+        <v>4942.97</v>
       </c>
       <c r="H9" s="8">
-        <v>52.57</v>
+        <v>56.95</v>
       </c>
       <c r="I9" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="8">
         <v>0</v>
       </c>
       <c r="K9" s="8">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
       <c r="L9" s="8">
         <v>0</v>
@@ -1207,39 +1223,42 @@
       <c r="N9" s="8">
         <v>0</v>
       </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
       <c r="P9" s="8">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="8">
         <v>31</v>
       </c>
       <c r="C10" s="9">
-        <v>42248</v>
+        <v>42217</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8">
-        <v>843.66</v>
+        <v>837.34</v>
       </c>
       <c r="G10" s="11">
-        <v>3479.05</v>
+        <v>4105.63</v>
       </c>
       <c r="H10" s="8">
-        <v>44.06</v>
+        <v>50.38</v>
       </c>
       <c r="I10" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="8">
         <v>0</v>
       </c>
       <c r="K10" s="8">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
       <c r="L10" s="8">
         <v>0</v>
@@ -1250,39 +1269,42 @@
       <c r="N10" s="8">
         <v>0</v>
       </c>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
       <c r="P10" s="8">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="9">
-        <v>42278</v>
+        <v>42248</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8">
-        <v>853.41</v>
+        <v>845.88</v>
       </c>
       <c r="G11" s="11">
-        <v>2625.64</v>
+        <v>3259.75</v>
       </c>
       <c r="H11" s="8">
-        <v>34.31</v>
+        <v>41.84</v>
       </c>
       <c r="I11" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J11" s="8">
         <v>0</v>
       </c>
       <c r="K11" s="8">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
       <c r="L11" s="8">
         <v>0</v>
@@ -1293,39 +1315,42 @@
       <c r="N11" s="8">
         <v>0</v>
       </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
       <c r="P11" s="8">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="9">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8">
-        <v>860.96</v>
+        <v>855.57</v>
       </c>
       <c r="G12" s="11">
-        <v>1764.68</v>
+        <v>2404.1799999999998</v>
       </c>
       <c r="H12" s="8">
-        <v>26.76</v>
+        <v>32.15</v>
       </c>
       <c r="I12" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="8">
         <v>0</v>
       </c>
       <c r="K12" s="8">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
       <c r="L12" s="8">
         <v>0</v>
@@ -1336,39 +1361,42 @@
       <c r="N12" s="8">
         <v>0</v>
       </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
       <c r="P12" s="8">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="9">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8">
-        <v>870.31</v>
-      </c>
-      <c r="G13" s="8">
-        <v>894.37</v>
+        <v>863.22</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1540.96</v>
       </c>
       <c r="H13" s="8">
-        <v>17.41</v>
+        <v>24.5</v>
       </c>
       <c r="I13" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J13" s="8">
         <v>0</v>
       </c>
       <c r="K13" s="8">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
       <c r="L13" s="8">
         <v>0</v>
@@ -1379,39 +1407,42 @@
       <c r="N13" s="8">
         <v>0</v>
       </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
       <c r="P13" s="8">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="9">
-        <v>42370</v>
+        <v>42339</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8">
-        <v>894.37</v>
+        <v>872.52</v>
       </c>
       <c r="G14" s="8">
-        <v>0</v>
+        <v>668.44</v>
       </c>
       <c r="H14" s="8">
-        <v>9.1199999999999992</v>
+        <v>15.2</v>
       </c>
       <c r="I14" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="8">
         <v>0</v>
       </c>
-      <c r="K14" s="11">
-        <v>1003.49</v>
+      <c r="K14" s="8">
+        <v>887.72</v>
       </c>
       <c r="L14" s="8">
         <v>0</v>
@@ -1422,11 +1453,108 @@
       <c r="N14" s="8">
         <v>0</v>
       </c>
-      <c r="P14" s="11">
-        <v>1003.49</v>
-      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8">
+        <v>31</v>
+      </c>
+      <c r="C15" s="9">
+        <v>42370</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
+        <v>668.44</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>6.81</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>675.25</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>675.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17">
+        <v>365</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="22">
+        <v>10000</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17">
+        <v>540.16999999999996</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0</v>
+      </c>
+      <c r="K16" s="23">
+        <v>10540.17</v>
+      </c>
+      <c r="L16" s="23">
+        <v>1875.44</v>
+      </c>
+      <c r="M16" s="17">
+        <v>0</v>
+      </c>
+      <c r="N16" s="17">
+        <v>0</v>
+      </c>
+      <c r="O16" s="17">
+        <v>0</v>
+      </c>
+      <c r="P16" s="23">
+        <v>8664.73</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C16:E16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Mifos Automation Excels/Client/3028-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/3028-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="767" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -143,33 +143,12 @@
     <t>Repayment</t>
   </si>
   <si>
-    <t>$ 785.8</t>
-  </si>
-  <si>
     <t>INCOME</t>
   </si>
   <si>
     <t>Income from interest(7)</t>
   </si>
   <si>
-    <t>$ 101.92</t>
-  </si>
-  <si>
-    <t>Income from fees(8)</t>
-  </si>
-  <si>
-    <t>$ 100</t>
-  </si>
-  <si>
-    <t>$ 987.72</t>
-  </si>
-  <si>
-    <t>L216</t>
-  </si>
-  <si>
-    <t>$ 10,000</t>
-  </si>
-  <si>
     <t>L3193</t>
   </si>
   <si>
@@ -185,14 +164,41 @@
     <t>repaymenttransactiondate</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>$ 5,000</t>
+  </si>
+  <si>
+    <t>L640</t>
+  </si>
+  <si>
+    <t>$ 836.76</t>
+  </si>
+  <si>
+    <t>$ 50.96</t>
+  </si>
+  <si>
+    <t>Income from penalties(9)</t>
+  </si>
+  <si>
+    <t>$ 100</t>
+  </si>
+  <si>
+    <t>$ 987.72</t>
+  </si>
+  <si>
+    <t>L1675</t>
+  </si>
+  <si>
+    <t>$ 849.4</t>
+  </si>
+  <si>
+    <t>$ 38.32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,14 +219,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -300,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -309,9 +307,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -334,27 +329,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,18 +657,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>52</v>
+      <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="20">
+      <c r="A2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="17">
         <v>42064</v>
       </c>
     </row>
@@ -692,16 +679,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -730,85 +717,82 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>10000</v>
       </c>
-      <c r="B2" s="8">
-        <v>785.8</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
-        <v>9214.2000000000007</v>
-      </c>
-      <c r="F2" s="8">
-        <v>802.9</v>
+      <c r="B2" s="10">
+        <v>1686.16</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>8313.84</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>668.41</v>
-      </c>
-      <c r="B3" s="8">
-        <v>101.92</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>566.49</v>
-      </c>
-      <c r="F3" s="8">
-        <v>84.82</v>
+      <c r="A3" s="7">
+        <v>551.74</v>
+      </c>
+      <c r="B3" s="7">
+        <v>89.28</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>462.46</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>1200</v>
-      </c>
-      <c r="B4" s="8">
-        <v>100</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1100</v>
-      </c>
-      <c r="F4" s="8">
-        <v>100</v>
+      <c r="A4" s="7">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A5" s="7">
+        <v>200</v>
+      </c>
+      <c r="B5" s="7">
+        <v>200</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -818,10 +802,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,666 +879,580 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8">
         <v>42005</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="10">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9">
         <v>5000</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>31</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>42036</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>42036</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="8">
+      <c r="E3" s="11"/>
+      <c r="F3" s="7">
         <v>836.76</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>4163.24</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>50.96</v>
       </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
         <v>100</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>987.72</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>987.72</v>
       </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8">
         <v>42064</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="10">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="9">
         <v>5000</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>28</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>42064</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>42064</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="8">
-        <v>850.32</v>
-      </c>
-      <c r="G5" s="11">
-        <v>8212.92</v>
-      </c>
-      <c r="H5" s="8">
-        <v>37.4</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="E5" s="11"/>
+      <c r="F5" s="7">
+        <v>849.4</v>
+      </c>
+      <c r="G5" s="10">
+        <v>8313.84</v>
+      </c>
+      <c r="H5" s="7">
+        <v>38.32</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>100</v>
+      </c>
+      <c r="K5" s="7">
+        <v>987.72</v>
+      </c>
+      <c r="L5" s="7">
+        <v>987.72</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8">
+        <v>42095</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
+        <v>802.99</v>
+      </c>
+      <c r="G6" s="10">
+        <v>7510.85</v>
+      </c>
+      <c r="H6" s="7">
+        <v>84.73</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
         <v>887.72</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
         <v>887.72</v>
       </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8">
+        <v>42125</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
+        <v>813.64</v>
+      </c>
+      <c r="G7" s="10">
+        <v>6697.21</v>
+      </c>
+      <c r="H7" s="7">
+        <v>74.08</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
         <v>31</v>
       </c>
-      <c r="C6" s="9">
-        <v>42095</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
-        <v>804.02</v>
-      </c>
-      <c r="G6" s="11">
-        <v>7408.9</v>
-      </c>
-      <c r="H6" s="8">
-        <v>83.7</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
+      <c r="C8" s="8">
+        <v>42156</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
+        <v>819.46</v>
+      </c>
+      <c r="G8" s="10">
+        <v>5877.75</v>
+      </c>
+      <c r="H8" s="7">
+        <v>68.260000000000005</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
         <v>887.72</v>
       </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
         <v>30</v>
       </c>
-      <c r="C7" s="9">
-        <v>42125</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8">
-        <v>814.65</v>
-      </c>
-      <c r="G7" s="11">
-        <v>6594.25</v>
-      </c>
-      <c r="H7" s="8">
-        <v>73.069999999999993</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
+      <c r="C9" s="8">
+        <v>42186</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
+        <v>829.75</v>
+      </c>
+      <c r="G9" s="9">
+        <v>5048</v>
+      </c>
+      <c r="H9" s="7">
+        <v>57.97</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
         <v>887.72</v>
       </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
         <v>31</v>
       </c>
-      <c r="C8" s="9">
-        <v>42156</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8">
-        <v>820.51</v>
-      </c>
-      <c r="G8" s="11">
-        <v>5773.74</v>
-      </c>
-      <c r="H8" s="8">
-        <v>67.209999999999994</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
+      <c r="C10" s="8">
+        <v>42217</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
+        <v>836.27</v>
+      </c>
+      <c r="G10" s="10">
+        <v>4211.7299999999996</v>
+      </c>
+      <c r="H10" s="7">
+        <v>51.45</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
         <v>887.72</v>
       </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <v>31</v>
+      </c>
+      <c r="C11" s="8">
+        <v>42248</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
+        <v>844.79</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3366.94</v>
+      </c>
+      <c r="H11" s="7">
+        <v>42.93</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7">
         <v>30</v>
       </c>
-      <c r="C9" s="9">
-        <v>42186</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8">
-        <v>830.77</v>
-      </c>
-      <c r="G9" s="11">
-        <v>4942.97</v>
-      </c>
-      <c r="H9" s="8">
-        <v>56.95</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
+      <c r="C12" s="8">
+        <v>42278</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7">
+        <v>854.51</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2512.4299999999998</v>
+      </c>
+      <c r="H12" s="7">
+        <v>33.21</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
         <v>887.72</v>
       </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
         <v>31</v>
       </c>
-      <c r="C10" s="9">
-        <v>42217</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8">
-        <v>837.34</v>
-      </c>
-      <c r="G10" s="11">
-        <v>4105.63</v>
-      </c>
-      <c r="H10" s="8">
-        <v>50.38</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
+      <c r="C13" s="8">
+        <v>42309</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
+        <v>862.11</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1650.32</v>
+      </c>
+      <c r="H13" s="7">
+        <v>25.61</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
         <v>887.72</v>
       </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7">
+        <v>30</v>
+      </c>
+      <c r="C14" s="8">
+        <v>42339</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
+        <v>871.44</v>
+      </c>
+      <c r="G14" s="7">
+        <v>778.88</v>
+      </c>
+      <c r="H14" s="7">
+        <v>16.28</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7">
         <v>31</v>
       </c>
-      <c r="C11" s="9">
-        <v>42248</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8">
-        <v>845.88</v>
-      </c>
-      <c r="G11" s="11">
-        <v>3259.75</v>
-      </c>
-      <c r="H11" s="8">
-        <v>41.84</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>887.72</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8">
-        <v>30</v>
-      </c>
-      <c r="C12" s="9">
-        <v>42278</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8">
-        <v>855.57</v>
-      </c>
-      <c r="G12" s="11">
-        <v>2404.1799999999998</v>
-      </c>
-      <c r="H12" s="8">
-        <v>32.15</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>887.72</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>10</v>
-      </c>
-      <c r="B13" s="8">
-        <v>31</v>
-      </c>
-      <c r="C13" s="9">
-        <v>42309</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8">
-        <v>863.22</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1540.96</v>
-      </c>
-      <c r="H13" s="8">
-        <v>24.5</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>887.72</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>11</v>
-      </c>
-      <c r="B14" s="8">
-        <v>30</v>
-      </c>
-      <c r="C14" s="9">
-        <v>42339</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8">
-        <v>872.52</v>
-      </c>
-      <c r="G14" s="8">
-        <v>668.44</v>
-      </c>
-      <c r="H14" s="8">
-        <v>15.2</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>887.72</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>12</v>
-      </c>
-      <c r="B15" s="8">
-        <v>31</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>42370</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8">
-        <v>668.44</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>6.81</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>675.25</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0</v>
-      </c>
-      <c r="M15" s="8">
-        <v>0</v>
-      </c>
-      <c r="N15" s="8">
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <v>0</v>
-      </c>
-      <c r="P15" s="8">
-        <v>675.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17">
-        <v>365</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="22">
-        <v>10000</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17">
-        <v>540.16999999999996</v>
-      </c>
-      <c r="I16" s="17">
-        <v>0</v>
-      </c>
-      <c r="J16" s="17">
-        <v>0</v>
-      </c>
-      <c r="K16" s="23">
-        <v>10540.17</v>
-      </c>
-      <c r="L16" s="23">
-        <v>1875.44</v>
-      </c>
-      <c r="M16" s="17">
-        <v>0</v>
-      </c>
-      <c r="N16" s="17">
-        <v>0</v>
-      </c>
-      <c r="O16" s="17">
-        <v>0</v>
-      </c>
-      <c r="P16" s="23">
-        <v>8664.73</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="21"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
+        <v>778.88</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>7.94</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>786.82</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>786.82</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C16:E16"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1562,15 +1460,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.140625" style="5" bestFit="1" customWidth="1"/>
@@ -1616,70 +1514,140 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>216</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="7">
+        <v>1675</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
+        <v>42064</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7">
+        <v>987.72</v>
+      </c>
+      <c r="F2" s="7">
+        <v>849.4</v>
+      </c>
+      <c r="G2" s="7">
+        <v>38.32</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>100</v>
+      </c>
+      <c r="J2" s="10">
+        <v>8313.84</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1671</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8">
+        <v>42064</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>9163.24</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>640</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8">
         <v>42036</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E4" s="7">
         <v>987.72</v>
       </c>
-      <c r="F2" s="8">
-        <v>785.8</v>
-      </c>
-      <c r="G2" s="8">
-        <v>101.92</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="F4" s="7">
+        <v>836.76</v>
+      </c>
+      <c r="G4" s="7">
+        <v>50.96</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
         <v>100</v>
       </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11">
-        <v>9214.2000000000007</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>213</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="J4" s="10">
+        <v>4163.24</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>632</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C5" s="8">
         <v>42005</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="10">
-        <v>10000</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
-        <v>10000</v>
-      </c>
+      <c r="E5" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>5000</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1691,37 +1659,40 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I3"/>
+      <selection activeCell="H2" sqref="H2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1730,13 +1701,13 @@
         <v>3640</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="18">
+        <v>43</v>
+      </c>
+      <c r="C2" s="15">
         <v>42005</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -1747,22 +1718,23 @@
       <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3641</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="18">
+        <v>43</v>
+      </c>
+      <c r="C3" s="15">
         <v>42005</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -1773,8 +1745,9 @@
       <c r="G3" t="s">
         <v>37</v>
       </c>
-      <c r="I3" t="s">
-        <v>48</v>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1787,60 +1760,60 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:I5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14"/>
-    <col min="2" max="2" width="17" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="14"/>
-    <col min="7" max="7" width="21.85546875" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="17" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="13"/>
+    <col min="7" max="7" width="21.85546875" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>9</v>
+        <v>1053</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <v>42036</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>36</v>
@@ -1851,77 +1824,77 @@
       <c r="G2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="18"/>
+      <c r="I2" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>10</v>
+        <v>1054</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>42036</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>11</v>
+        <v>1055</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>42036</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>12</v>
+        <v>1056</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>42036</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>36</v>
@@ -1932,10 +1905,10 @@
       <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="4"/>
+      <c r="H5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1946,38 +1919,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1986,13 +1962,13 @@
         <v>3640</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="18">
+        <v>43</v>
+      </c>
+      <c r="C2" s="15">
         <v>42005</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -2003,22 +1979,23 @@
       <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3641</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="18">
+        <v>43</v>
+      </c>
+      <c r="C3" s="15">
         <v>42005</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -2029,8 +2006,9 @@
       <c r="G3" t="s">
         <v>37</v>
       </c>
-      <c r="I3" t="s">
-        <v>48</v>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2042,53 +2020,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>9</v>
+        <v>3090</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="16">
-        <v>42036</v>
+      <c r="C2" s="14">
+        <v>42064</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>36</v>
@@ -2099,77 +2080,77 @@
       <c r="G2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>40</v>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>10</v>
+        <v>3091</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="16">
-        <v>42036</v>
+      <c r="C3" s="14">
+        <v>42064</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>11</v>
+        <v>3092</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="16">
-        <v>42036</v>
+      <c r="C4" s="14">
+        <v>42064</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>12</v>
+        <v>3093</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="16">
-        <v>42036</v>
+      <c r="C5" s="14">
+        <v>42064</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>36</v>
@@ -2180,10 +2161,10 @@
       <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="4"/>
+      <c r="H5" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3028-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/3028-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="767" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="767" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -802,10 +802,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,12 +823,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="20" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -868,17 +869,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -904,8 +906,9 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -943,14 +946,15 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8">
@@ -975,9 +979,10 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1015,14 +1020,15 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1058,14 +1064,15 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1101,14 +1108,15 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1144,14 +1152,15 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1187,14 +1196,15 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1230,14 +1240,15 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1273,14 +1284,15 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1316,14 +1328,15 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1359,14 +1372,15 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -1402,14 +1416,15 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -1445,10 +1460,11 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
         <v>786.82</v>
       </c>
     </row>
@@ -2020,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
